--- a/DATA_goal/Junction_Flooding_407.xlsx
+++ b/DATA_goal/Junction_Flooding_407.xlsx
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,9 +462,9 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,52 +655,52 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.83</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.7</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.8</v>
+        <v>78.05</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.55</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.01</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_407.xlsx
+++ b/DATA_goal/Junction_Flooding_407.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45088.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45088.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.88</v>
+        <v>3.843</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.07</v>
+        <v>2.174</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.389</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.83</v>
+        <v>8.113</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.99</v>
+        <v>6.114</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.52</v>
+        <v>3.026</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.7</v>
+        <v>16.643</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.32</v>
+        <v>4.654</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.74</v>
+        <v>1.824</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.89</v>
+        <v>2.492</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.65</v>
+        <v>3.215</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.36</v>
+        <v>3.217</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.38</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>4.141</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.25</v>
+        <v>2.903</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.449</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.694</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.05</v>
+        <v>38.527</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.51</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.13</v>
+        <v>5.531</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.84</v>
+        <v>2.684</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.971</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.1</v>
+        <v>7.64</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.55</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.89</v>
+        <v>2.434</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.99</v>
+        <v>2.817</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.56</v>
+        <v>3.182</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.13</v>
+        <v>15.626</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.64</v>
+        <v>1.391</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.85</v>
+        <v>3.474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45088.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.7</v>
+        <v>8.167</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.22</v>
+        <v>5.672</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.045</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.25</v>
+        <v>17.651</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.81</v>
+        <v>14.142</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.44</v>
+        <v>6.427</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.31</v>
+        <v>23.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.07</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.04</v>
+        <v>4.202</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.59</v>
+        <v>6.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.95</v>
+        <v>7.082</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.55</v>
+        <v>7.361</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5</v>
+        <v>2.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.75</v>
+        <v>8.923999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.93</v>
+        <v>5.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.37</v>
+        <v>89.926</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.45</v>
+        <v>17.784</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.62</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.89</v>
+        <v>11.673</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.76</v>
+        <v>6.106</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.237</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.32</v>
+        <v>11.399</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.2</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>4.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.45</v>
+        <v>5.583</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.74</v>
+        <v>7.322</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.18</v>
+        <v>21.342</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>3.216</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.97</v>
+        <v>7.375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45088.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.24</v>
+        <v>7.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.64</v>
+        <v>5.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.26</v>
+        <v>16.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.83</v>
+        <v>13.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.85</v>
+        <v>6.05</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.76</v>
+        <v>23.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.73</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.25</v>
+        <v>4.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.97</v>
+        <v>5.86</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.31</v>
+        <v>6.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.05</v>
+        <v>6.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>1.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.73</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.04</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.08</v>
+        <v>84.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.24</v>
+        <v>16.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.9</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.36</v>
+        <v>11.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.01</v>
+        <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.59</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.88</v>
+        <v>11.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.52</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.26</v>
+        <v>4.46</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.73</v>
+        <v>5.22</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.19</v>
+        <v>6.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.27</v>
+        <v>21.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.82</v>
+        <v>3.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.61</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_407.xlsx
+++ b/DATA_goal/Junction_Flooding_407.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45088.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.217</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.901</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.042</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.812</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.818</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.123</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.986</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.269</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.67</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.076</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.742</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.827</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.038</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.994</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.85</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.249</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.547</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.81</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.881</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.553</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.055</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.03</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.312</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.261</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.125</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.047</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.565</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.456</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.557</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.647</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.354</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45088.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.843</v>
+        <v>6.878</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.174</v>
+        <v>5.07</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.389</v>
+        <v>0.314</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.113</v>
+        <v>15.833</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.114</v>
+        <v>11.986</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.026</v>
+        <v>5.516</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.643</v>
+        <v>16.704</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.654</v>
+        <v>8.319000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.824</v>
+        <v>3.735</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.492</v>
+        <v>5.89</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.215</v>
+        <v>6.654</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.217</v>
+        <v>6.36</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.98</v>
+        <v>1.801</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.008</v>
+        <v>5.377</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.141</v>
+        <v>8.798999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.903</v>
+        <v>4.247</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.449</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.694</v>
+        <v>0.016</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.527</v>
+        <v>78.04900000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.768000000000001</v>
+        <v>15.512</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.776</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.531</v>
+        <v>10.135</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.684</v>
+        <v>5.842</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.971</v>
+        <v>1.47</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.64</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.452</v>
+        <v>4.546</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.434</v>
+        <v>3.893</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.817</v>
+        <v>4.994</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.182</v>
+        <v>6.559</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.626</v>
+        <v>15.127</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.391</v>
+        <v>2.644</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.474</v>
+        <v>6.854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45088.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.167</v>
+        <v>1.702</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.672</v>
+        <v>1.217</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.045</v>
+        <v>0.134</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.651</v>
+        <v>4.25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.142</v>
+        <v>2.809</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.427</v>
+        <v>1.441</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.78</v>
+        <v>8.307</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>2.074</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.202</v>
+        <v>1.043</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.16</v>
+        <v>1.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.082</v>
+        <v>1.945</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.361</v>
+        <v>1.547</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.497</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.391</v>
+        <v>1.316</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.923999999999999</v>
+        <v>2.751</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.62</v>
+        <v>0.929</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.981</v>
+        <v>0.006</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.575</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.926</v>
+        <v>15.373</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.784</v>
+        <v>4.45</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.899</v>
+        <v>1.615</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.673</v>
+        <v>2.888</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.106</v>
+        <v>1.755</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.237</v>
+        <v>0.668</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.399</v>
+        <v>4.321</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.211</v>
+        <v>1.204</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.77</v>
+        <v>0.982</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.583</v>
+        <v>1.449</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.322</v>
+        <v>1.742</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.342</v>
+        <v>8.177</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.216</v>
+        <v>0.573</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.375</v>
+        <v>1.969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45088.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.69</v>
+        <v>2.237</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.43</v>
+        <v>1.636</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.145</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.65</v>
+        <v>5.265</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.4</v>
+        <v>3.835</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.05</v>
+        <v>1.847</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.6</v>
+        <v>7.764</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.31</v>
+        <v>2.725</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.02</v>
+        <v>1.249</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.86</v>
+        <v>1.973</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.69</v>
+        <v>2.314</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.98</v>
+        <v>2.052</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.93</v>
+        <v>0.601</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.02</v>
+        <v>1.733</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>3.04</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.25</v>
+        <v>1.305</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.019</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.23</v>
+        <v>21.077</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.84</v>
+        <v>5.239</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.55</v>
+        <v>1.904</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.13</v>
+        <v>3.364</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.81</v>
+        <v>2.009</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.593</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.37</v>
+        <v>3.876</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>1.521</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.46</v>
+        <v>1.262</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.22</v>
+        <v>1.726</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.95</v>
+        <v>2.193</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.41</v>
+        <v>7.267</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.05</v>
+        <v>0.825</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.94</v>
+        <v>2.338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_407.xlsx
+++ b/DATA_goal/Junction_Flooding_407.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45088.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.735</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.124</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>40.812</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>32.818</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>15.123</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>47.986</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>23.269</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>16.076</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>16.742</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>4.827</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1.423</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.643</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.329</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>2.279</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.076</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.423</v>
-      </c>
       <c r="O2" s="4" t="n">
-        <v>1.072</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.872</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.514</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.001</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.386</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.712</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.121</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.552</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.645</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.823</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.314</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.973</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.721</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.589</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.435</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.091</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.771</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.187</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45088.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.878</v>
+        <v>3.843</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.07</v>
+        <v>2.174</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.314</v>
+        <v>1.389</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.833</v>
+        <v>8.113</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.986</v>
+        <v>6.114</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.516</v>
+        <v>3.026</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.704</v>
+        <v>16.643</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.319000000000001</v>
+        <v>4.654</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.735</v>
+        <v>1.824</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.89</v>
+        <v>2.492</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.654</v>
+        <v>3.215</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.36</v>
+        <v>3.217</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.801</v>
+        <v>0.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.377</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.798999999999999</v>
+        <v>4.141</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.247</v>
+        <v>2.903</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07099999999999999</v>
+        <v>1.449</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.016</v>
+        <v>0.694</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.04900000000001</v>
+        <v>38.527</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.512</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.135</v>
+        <v>5.531</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.842</v>
+        <v>2.684</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.971</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.098000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.546</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.893</v>
+        <v>2.434</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.994</v>
+        <v>2.817</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.559</v>
+        <v>3.182</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.127</v>
+        <v>15.626</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.644</v>
+        <v>1.391</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.854</v>
+        <v>3.474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45088.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.702</v>
+        <v>8.167</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.217</v>
+        <v>5.672</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.134</v>
+        <v>1.045</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.25</v>
+        <v>17.651</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.809</v>
+        <v>14.142</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.441</v>
+        <v>6.427</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.307</v>
+        <v>23.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.074</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.043</v>
+        <v>4.202</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.59</v>
+        <v>6.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.945</v>
+        <v>7.082</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.547</v>
+        <v>7.361</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.497</v>
+        <v>2.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.316</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.751</v>
+        <v>8.923999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.929</v>
+        <v>5.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.006</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.373</v>
+        <v>89.926</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.45</v>
+        <v>17.784</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.615</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.888</v>
+        <v>11.673</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.755</v>
+        <v>6.106</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.668</v>
+        <v>1.237</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.321</v>
+        <v>11.399</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.204</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.982</v>
+        <v>4.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.449</v>
+        <v>5.583</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.742</v>
+        <v>7.322</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.177</v>
+        <v>21.342</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.573</v>
+        <v>3.216</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.969</v>
+        <v>7.375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45088.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.237</v>
+        <v>7.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.636</v>
+        <v>5.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.145</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.265</v>
+        <v>16.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.835</v>
+        <v>13.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.847</v>
+        <v>6.05</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.764</v>
+        <v>23.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.725</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.249</v>
+        <v>4.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.973</v>
+        <v>5.86</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.314</v>
+        <v>6.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.052</v>
+        <v>6.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.601</v>
+        <v>1.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.733</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.04</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.305</v>
+        <v>5.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.019</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.077</v>
+        <v>84.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.239</v>
+        <v>16.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.904</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.364</v>
+        <v>11.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.009</v>
+        <v>5.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.593</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.876</v>
+        <v>11.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.521</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.262</v>
+        <v>4.46</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.726</v>
+        <v>5.22</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.193</v>
+        <v>6.95</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.267</v>
+        <v>21.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.825</v>
+        <v>3.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.338</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.61</v>
+        <v>6.94</v>
       </c>
     </row>
   </sheetData>
